--- a/calcs/RC Car Calcs.xlsx
+++ b/calcs/RC Car Calcs.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\darre\Documents\Personal Files\Solidworks\Car\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\darren\Documents\Solidworks\RC_Car\calcs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{032A890E-D18C-4D7E-8B4C-886DC217A245}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4A0FA11-4438-45A3-9EAA-D28B551A2842}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19310" yWindow="1740" windowWidth="19420" windowHeight="10420" xr2:uid="{852037FD-E437-4CF4-89D0-BA178B4F63EC}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{852037FD-E437-4CF4-89D0-BA178B4F63EC}"/>
   </bookViews>
   <sheets>
     <sheet name="Parts List" sheetId="2" r:id="rId1"/>
     <sheet name="Timing Belt Length Calc" sheetId="1" r:id="rId2"/>
+    <sheet name="Total Fasteners Needed" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,6 +29,7 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
   <si>
     <t>pulley 1</t>
   </si>
@@ -81,13 +83,52 @@
   </si>
   <si>
     <t>https://www.amazon.com/Rowiz-Off-Road-Wheels-Tires-Crossing/dp/B01HCWDL68</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Traxxas-1275-20-Turn-Stinger-Motor/dp/B0006N6QIQ</t>
+  </si>
+  <si>
+    <t>servo</t>
+  </si>
+  <si>
+    <t>size</t>
+  </si>
+  <si>
+    <t>count</t>
+  </si>
+  <si>
+    <t>motor</t>
+  </si>
+  <si>
+    <t>m3</t>
+  </si>
+  <si>
+    <t>tensioning</t>
+  </si>
+  <si>
+    <t>back wheels</t>
+  </si>
+  <si>
+    <t>10-32</t>
+  </si>
+  <si>
+    <t>upright stand</t>
+  </si>
+  <si>
+    <t>front wheel axle</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>https://www.huyett.com/blog/nuts-and-bolts-sizes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -110,8 +151,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -121,6 +175,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -138,10 +198,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -161,10 +224,59 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>103877</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D647030F-2170-9EF2-F777-210067D7F77A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6305550" y="361950"/>
+          <a:ext cx="3733800" cy="2637527"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -202,7 +314,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -308,7 +420,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -450,7 +562,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -458,15 +570,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33097B78-FA9C-4E96-A2CC-424F699D57D5}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -474,7 +586,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -482,7 +594,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -490,7 +602,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -498,12 +610,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>13</v>
       </c>
       <c r="B5" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B6" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -511,8 +628,10 @@
     <hyperlink ref="B2" r:id="rId1" xr:uid="{F71715E8-0B1A-4C29-A05C-5EA16F35A397}"/>
     <hyperlink ref="B3" r:id="rId2" xr:uid="{2BF8ADF8-D14F-40A4-ABAC-263DC2DC70B1}"/>
     <hyperlink ref="B4" r:id="rId3" xr:uid="{78C9F048-EF81-4921-B46A-CB428FAA142D}"/>
+    <hyperlink ref="B6" r:id="rId4" xr:uid="{2BCC9ACA-791E-4C67-A56A-A3C5D2CF1EEB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -524,17 +643,17 @@
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.07421875" customWidth="1"/>
+    <col min="1" max="1" width="12.06640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -542,7 +661,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -550,7 +669,7 @@
         <v>16.05</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -558,7 +677,7 @@
         <v>72.260000000000005</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -571,4 +690,108 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE9EF512-BAF5-4241-9702-0264F95297CD}">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="13.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" customWidth="1"/>
+    <col min="3" max="3" width="9.06640625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2">
+        <v>4</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6">
+        <v>6</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="C2" twoDigitTextYear="1"/>
+  </ignoredErrors>
+</worksheet>
 </file>
--- a/calcs/RC Car Calcs.xlsx
+++ b/calcs/RC Car Calcs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\darren\Documents\Solidworks\RC_Car\calcs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4A0FA11-4438-45A3-9EAA-D28B551A2842}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC6C9A4F-82D0-43DE-AE2F-F2D78563996D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{852037FD-E437-4CF4-89D0-BA178B4F63EC}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" activeTab="1" xr2:uid="{852037FD-E437-4CF4-89D0-BA178B4F63EC}"/>
   </bookViews>
   <sheets>
     <sheet name="Parts List" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
   <si>
     <t>pulley 1</t>
   </si>
@@ -122,6 +122,18 @@
   </si>
   <si>
     <t>https://www.huyett.com/blog/nuts-and-bolts-sizes</t>
+  </si>
+  <si>
+    <t>https://www.mcmaster.com/products/timing-belts/material~urethane-rubber/t-series-dust-free-timing-belts/</t>
+  </si>
+  <si>
+    <t>https://sudenga.com/resources/figuring-belt-lengths-and-distance-between-pulleys/</t>
+  </si>
+  <si>
+    <t>https://www.mcmaster.com/1679K454/</t>
+  </si>
+  <si>
+    <t>choose a length bigger cuz tensioner is in shortest length right now; prolly this one?</t>
   </si>
 </sst>
 </file>
@@ -198,13 +210,16 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -262,6 +277,55 @@
         <a:xfrm>
           <a:off x="6305550" y="361950"/>
           <a:ext cx="3733800" cy="2637527"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>32971</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>686129</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA863F4A-0557-2C13-C1EE-B68B00C7114B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2803072" y="767757"/>
+          <a:ext cx="3878036" cy="1584201"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -570,10 +634,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33097B78-FA9C-4E96-A2CC-424F699D57D5}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -611,15 +675,20 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
         <v>13</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B6" s="2" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B7" s="2" t="s">
         <v>15</v>
       </c>
     </row>
@@ -628,7 +697,7 @@
     <hyperlink ref="B2" r:id="rId1" xr:uid="{F71715E8-0B1A-4C29-A05C-5EA16F35A397}"/>
     <hyperlink ref="B3" r:id="rId2" xr:uid="{2BF8ADF8-D14F-40A4-ABAC-263DC2DC70B1}"/>
     <hyperlink ref="B4" r:id="rId3" xr:uid="{78C9F048-EF81-4921-B46A-CB428FAA142D}"/>
-    <hyperlink ref="B6" r:id="rId4" xr:uid="{2BCC9ACA-791E-4C67-A56A-A3C5D2CF1EEB}"/>
+    <hyperlink ref="B7" r:id="rId4" xr:uid="{2BCC9ACA-791E-4C67-A56A-A3C5D2CF1EEB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId5"/>
@@ -637,10 +706,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4531550B-F958-41DE-8E6F-D7ADD9C770D9}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -648,12 +717,12 @@
     <col min="1" max="1" width="12.06640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -661,34 +730,53 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3">
         <v>16.05</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="E3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>2</v>
       </c>
       <c r="B5">
-        <v>72.260000000000005</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="1">
         <f>2*B5+1.57*(B2+B3)+(B2-B3)^2/(B5*4)</f>
-        <v>234.50300906448936</v>
+        <v>247.8136977848101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="68.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A10:C10"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/calcs/RC Car Calcs.xlsx
+++ b/calcs/RC Car Calcs.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\darren\Documents\Solidworks\RC_Car\calcs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\darre\Documents\Personal Files\Solidworks\Car\calcs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC6C9A4F-82D0-43DE-AE2F-F2D78563996D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80747F5A-C35A-4233-8BEE-094C85DB9640}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" activeTab="1" xr2:uid="{852037FD-E437-4CF4-89D0-BA178B4F63EC}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11949" activeTab="1" xr2:uid="{852037FD-E437-4CF4-89D0-BA178B4F63EC}"/>
   </bookViews>
   <sheets>
     <sheet name="Parts List" sheetId="2" r:id="rId1"/>
     <sheet name="Timing Belt Length Calc" sheetId="1" r:id="rId2"/>
     <sheet name="Total Fasteners Needed" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +29,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -109,9 +108,6 @@
     <t>back wheels</t>
   </si>
   <si>
-    <t>10-32</t>
-  </si>
-  <si>
     <t>upright stand</t>
   </si>
   <si>
@@ -134,6 +130,9 @@
   </si>
   <si>
     <t>choose a length bigger cuz tensioner is in shortest length right now; prolly this one?</t>
+  </si>
+  <si>
+    <t>8-32</t>
   </si>
 </sst>
 </file>
@@ -293,15 +292,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
+      <xdr:colOff>452176</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>32971</xdr:rowOff>
+      <xdr:rowOff>41868</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
+      <xdr:colOff>452176</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>686129</xdr:rowOff>
+      <xdr:rowOff>695026</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -324,8 +323,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2803072" y="767757"/>
-          <a:ext cx="3878036" cy="1584201"/>
+          <a:off x="3265714" y="778747"/>
+          <a:ext cx="3918857" cy="1574257"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -338,9 +337,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -378,7 +377,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -484,7 +483,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -626,7 +625,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -640,9 +639,9 @@
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -650,7 +649,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -658,7 +657,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -666,7 +665,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -674,12 +673,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -687,7 +686,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B7" s="2" t="s">
         <v>15</v>
       </c>
@@ -709,20 +708,20 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="12.06640625" customWidth="1"/>
+    <col min="1" max="1" width="12.07421875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -730,7 +729,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -738,10 +737,10 @@
         <v>16.05</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -749,7 +748,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -758,25 +757,28 @@
         <v>247.8136977848101</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="68.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" ht="68.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
-        <v>30</v>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A11" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A10:C10"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A11" r:id="rId1" xr:uid="{59EB557E-C11F-4022-882C-B4FD38EE34E9}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -785,19 +787,19 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="13.59765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" customWidth="1"/>
-    <col min="3" max="3" width="9.06640625" style="3"/>
+    <col min="1" max="1" width="13.61328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.69140625" customWidth="1"/>
+    <col min="3" max="3" width="9.07421875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>18</v>
@@ -806,7 +808,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -814,10 +816,10 @@
         <v>4</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -828,32 +830,32 @@
         <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -861,10 +863,10 @@
         <v>6</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -872,14 +874,12 @@
         <v>4</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="C2" twoDigitTextYear="1"/>
-  </ignoredErrors>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/calcs/RC Car Calcs.xlsx
+++ b/calcs/RC Car Calcs.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\darre\Documents\Personal Files\Solidworks\Car\calcs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\darren\Documents\Solidworks\RC_Car\calcs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80747F5A-C35A-4233-8BEE-094C85DB9640}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55FF6F4E-D3E8-4A4E-9ED9-E5732BD7C21A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11949" activeTab="1" xr2:uid="{852037FD-E437-4CF4-89D0-BA178B4F63EC}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" activeTab="1" xr2:uid="{852037FD-E437-4CF4-89D0-BA178B4F63EC}"/>
   </bookViews>
   <sheets>
     <sheet name="Parts List" sheetId="2" r:id="rId1"/>
     <sheet name="Timing Belt Length Calc" sheetId="1" r:id="rId2"/>
     <sheet name="Total Fasteners Needed" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,6 +29,7 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
   <si>
     <t>pulley 1</t>
   </si>
@@ -133,6 +134,15 @@
   </si>
   <si>
     <t>8-32</t>
+  </si>
+  <si>
+    <t>add holes</t>
+  </si>
+  <si>
+    <t>bring steering rack longer</t>
+  </si>
+  <si>
+    <t>bring wheels</t>
   </si>
 </sst>
 </file>
@@ -337,9 +347,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -377,7 +387,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -483,7 +493,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -625,7 +635,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -636,12 +646,12 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -649,7 +659,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -657,7 +667,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -665,7 +675,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -673,20 +683,20 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>13</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B7" s="2" t="s">
         <v>15</v>
       </c>
@@ -697,31 +707,32 @@
     <hyperlink ref="B3" r:id="rId2" xr:uid="{2BF8ADF8-D14F-40A4-ABAC-263DC2DC70B1}"/>
     <hyperlink ref="B4" r:id="rId3" xr:uid="{78C9F048-EF81-4921-B46A-CB428FAA142D}"/>
     <hyperlink ref="B7" r:id="rId4" xr:uid="{2BCC9ACA-791E-4C67-A56A-A3C5D2CF1EEB}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{98D6099A-3DCF-4B5E-9421-E246302D12E7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId5"/>
+  <drawing r:id="rId6"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4531550B-F958-41DE-8E6F-D7ADD9C770D9}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.07421875" customWidth="1"/>
+    <col min="1" max="1" width="12.06640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -729,7 +740,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -740,7 +751,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -748,7 +759,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -757,16 +768,31 @@
         <v>247.8136977848101</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="68.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5" ht="68.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="6" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -790,14 +816,14 @@
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="13.61328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.69140625" customWidth="1"/>
-    <col min="3" max="3" width="9.07421875" style="3"/>
+    <col min="1" max="1" width="13.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" customWidth="1"/>
+    <col min="3" max="3" width="9.06640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
         <v>25</v>
       </c>
@@ -808,7 +834,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -819,7 +845,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -833,7 +859,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -844,7 +870,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -855,7 +881,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -866,7 +892,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>22</v>
       </c>

--- a/calcs/RC Car Calcs.xlsx
+++ b/calcs/RC Car Calcs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\darren\Documents\Solidworks\RC_Car\calcs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\darre\Documents\Personal Files\Solidworks\Car\calcs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55FF6F4E-D3E8-4A4E-9ED9-E5732BD7C21A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD8D8606-C79F-46D0-8832-7ECF33973D1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" activeTab="1" xr2:uid="{852037FD-E437-4CF4-89D0-BA178B4F63EC}"/>
+    <workbookView xWindow="21840" yWindow="-103" windowWidth="22149" windowHeight="11949" activeTab="1" xr2:uid="{852037FD-E437-4CF4-89D0-BA178B4F63EC}"/>
   </bookViews>
   <sheets>
     <sheet name="Parts List" sheetId="2" r:id="rId1"/>
@@ -347,9 +347,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -387,7 +387,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -493,7 +493,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -635,7 +635,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -649,9 +649,9 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -659,7 +659,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -667,7 +667,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -675,7 +675,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -683,12 +683,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -696,7 +696,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B7" s="2" t="s">
         <v>15</v>
       </c>
@@ -719,20 +719,20 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="12.06640625" customWidth="1"/>
+    <col min="1" max="1" width="12.07421875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -740,7 +740,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -751,7 +751,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -759,7 +759,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -768,29 +768,29 @@
         <v>247.8136977848101</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="68.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" ht="68.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="6" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -816,14 +816,14 @@
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="13.59765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" customWidth="1"/>
-    <col min="3" max="3" width="9.06640625" style="3"/>
+    <col min="1" max="1" width="13.61328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.69140625" customWidth="1"/>
+    <col min="3" max="3" width="9.07421875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
         <v>25</v>
       </c>
@@ -834,7 +834,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -845,7 +845,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -859,7 +859,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -870,7 +870,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -881,7 +881,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -892,7 +892,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>22</v>
       </c>
